--- a/database/industries/ravankar/sheranol/product/quarterly.xlsx
+++ b/database/industries/ravankar/sheranol/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\ravankar\sheranol\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\sheranol\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F73807-703D-4EF6-A51C-5B42F214A911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD58D7FF-A23D-47A7-88F8-56766001B53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="41">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار تولید</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -583,16 +598,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I116"/>
+  <dimension ref="B1:N116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -601,8 +616,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -613,8 +633,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -625,8 +650,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -635,8 +665,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -647,8 +682,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -659,8 +699,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -669,8 +714,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -691,8 +741,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -701,316 +766,516 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="9">
+        <v>17</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="9">
         <v>111904</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>27279</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>25972</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>22231</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>925</v>
+      </c>
+      <c r="F11" s="11">
+        <v>271</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1274</v>
+      </c>
+      <c r="H11" s="11">
+        <v>503</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1176</v>
+      </c>
+      <c r="J11" s="11">
         <v>264</v>
       </c>
-      <c r="F11" s="11">
-        <v>17</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="K11" s="11">
+        <v>17</v>
+      </c>
+      <c r="L11" s="11">
         <v>378</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>790</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>504</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>128777</v>
+      </c>
+      <c r="F12" s="9">
+        <v>133173</v>
+      </c>
+      <c r="G12" s="9">
+        <v>505258</v>
+      </c>
+      <c r="H12" s="9">
+        <v>119079</v>
+      </c>
+      <c r="I12" s="9">
+        <v>124718</v>
+      </c>
+      <c r="J12" s="9">
         <v>138782</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>22419</v>
+      </c>
+      <c r="F13" s="11">
+        <v>16298</v>
+      </c>
+      <c r="G13" s="11">
+        <v>72717</v>
+      </c>
+      <c r="H13" s="11">
+        <v>16283</v>
+      </c>
+      <c r="I13" s="11">
+        <v>16514</v>
+      </c>
+      <c r="J13" s="11">
         <v>17301</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="9">
+        <v>17</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="9">
         <v>90262</v>
       </c>
-      <c r="G14" s="9">
+      <c r="L14" s="9">
         <v>36331</v>
       </c>
-      <c r="H14" s="9">
+      <c r="M14" s="9">
         <v>39018</v>
       </c>
-      <c r="I14" s="9">
+      <c r="N14" s="9">
         <v>26682</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
+        <v>88</v>
+      </c>
+      <c r="I15" s="11">
+        <v>131</v>
+      </c>
+      <c r="J15" s="11">
         <v>181</v>
       </c>
-      <c r="F15" s="11">
+      <c r="K15" s="11">
         <v>570</v>
       </c>
-      <c r="G15" s="11">
-        <v>0</v>
-      </c>
-      <c r="H15" s="11">
+      <c r="L15" s="11">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
         <v>626</v>
       </c>
-      <c r="I15" s="11">
+      <c r="N15" s="11">
         <v>849</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="11">
+        <v>17</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="11">
         <v>68633</v>
       </c>
-      <c r="G17" s="11">
+      <c r="L17" s="11">
         <v>17765</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>17048</v>
       </c>
-      <c r="I17" s="11">
+      <c r="N17" s="11">
         <v>17771</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="9">
+        <v>17</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="9">
         <v>56133</v>
       </c>
-      <c r="G18" s="9">
+      <c r="L18" s="9">
         <v>7677</v>
       </c>
-      <c r="H18" s="9">
+      <c r="M18" s="9">
         <v>19271</v>
       </c>
-      <c r="I18" s="9">
+      <c r="N18" s="9">
         <v>17320</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="11">
+        <v>17</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="11">
         <v>46631</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>10799</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>11614</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>13237</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="9">
+        <v>17</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="9">
         <v>45536</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>7253</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>6615</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>7447</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="11">
+        <v>17</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="11">
         <v>163280</v>
       </c>
-      <c r="G21" s="11">
+      <c r="L21" s="11">
         <v>50543</v>
       </c>
-      <c r="H21" s="11">
+      <c r="M21" s="11">
         <v>37815</v>
       </c>
-      <c r="I21" s="11">
+      <c r="N21" s="11">
         <v>40385</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13">
+        <v>152121</v>
+      </c>
+      <c r="F22" s="13">
+        <v>149742</v>
+      </c>
+      <c r="G22" s="13">
+        <v>579249</v>
+      </c>
+      <c r="H22" s="13">
+        <v>135953</v>
+      </c>
+      <c r="I22" s="13">
+        <v>142539</v>
+      </c>
+      <c r="J22" s="13">
         <v>156528</v>
       </c>
-      <c r="F22" s="13">
+      <c r="K22" s="13">
         <v>582966</v>
       </c>
-      <c r="G22" s="13">
+      <c r="L22" s="13">
         <v>158025</v>
       </c>
-      <c r="H22" s="13">
+      <c r="M22" s="13">
         <v>158769</v>
       </c>
-      <c r="I22" s="13">
+      <c r="N22" s="13">
         <v>146426</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1019,8 +1284,13 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1029,8 +1299,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1039,10 +1314,15 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -1061,8 +1341,23 @@
       <c r="I26" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1071,340 +1366,555 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>12</v>
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0</v>
       </c>
       <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="9">
         <v>27381</v>
       </c>
-      <c r="H28" s="9">
+      <c r="M28" s="9">
         <v>25980</v>
       </c>
-      <c r="I28" s="9">
+      <c r="N28" s="9">
         <v>22233</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11">
+        <v>813</v>
+      </c>
+      <c r="F29" s="11">
+        <v>509</v>
+      </c>
+      <c r="G29" s="11">
+        <v>180</v>
+      </c>
+      <c r="H29" s="11">
+        <v>12</v>
+      </c>
+      <c r="I29" s="11">
+        <v>1085</v>
+      </c>
+      <c r="J29" s="11">
         <v>612</v>
       </c>
-      <c r="F29" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="11">
+      <c r="K29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="11">
         <v>63</v>
       </c>
-      <c r="H29" s="11">
+      <c r="M29" s="11">
         <v>587</v>
       </c>
-      <c r="I29" s="11">
+      <c r="N29" s="11">
         <v>856</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9">
+        <v>130319</v>
+      </c>
+      <c r="F30" s="9">
+        <v>135933</v>
+      </c>
+      <c r="G30" s="9">
+        <v>132199</v>
+      </c>
+      <c r="H30" s="9">
+        <v>116617</v>
+      </c>
+      <c r="I30" s="9">
+        <v>126597</v>
+      </c>
+      <c r="J30" s="9">
         <v>137628</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
+        <v>26602</v>
+      </c>
+      <c r="F31" s="11">
+        <v>16478</v>
+      </c>
+      <c r="G31" s="11">
+        <v>17015</v>
+      </c>
+      <c r="H31" s="11">
+        <v>14829</v>
+      </c>
+      <c r="I31" s="11">
+        <v>17451</v>
+      </c>
+      <c r="J31" s="11">
         <v>17295</v>
       </c>
-      <c r="F31" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="9">
+        <v>17</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="9">
         <v>36331</v>
       </c>
-      <c r="H32" s="9">
+      <c r="M32" s="9">
         <v>39018</v>
       </c>
-      <c r="I32" s="9">
+      <c r="N32" s="9">
         <v>26682</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D33" s="11"/>
-      <c r="E33" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>12</v>
+      <c r="E33" s="11">
+        <v>0</v>
+      </c>
+      <c r="F33" s="11">
+        <v>0</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9">
+        <v>364</v>
+      </c>
+      <c r="F34" s="9">
+        <v>297</v>
+      </c>
+      <c r="G34" s="9">
+        <v>247</v>
+      </c>
+      <c r="H34" s="9">
+        <v>88</v>
+      </c>
+      <c r="I34" s="9">
+        <v>131</v>
+      </c>
+      <c r="J34" s="9">
         <v>206</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="9">
+      <c r="K34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="9">
         <v>101</v>
       </c>
-      <c r="H34" s="9">
+      <c r="M34" s="9">
         <v>377</v>
       </c>
-      <c r="I34" s="9">
+      <c r="N34" s="9">
         <v>828</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>12</v>
+      <c r="E35" s="11">
+        <v>0</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0</v>
       </c>
       <c r="G35" s="11">
         <v>0</v>
       </c>
-      <c r="H35" s="11">
-        <v>0</v>
+      <c r="H35" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I35" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="11">
+        <v>0</v>
+      </c>
+      <c r="M35" s="11">
+        <v>0</v>
+      </c>
+      <c r="N35" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="9">
+        <v>17</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="9">
         <v>17779</v>
       </c>
-      <c r="H36" s="9">
+      <c r="M36" s="9">
         <v>16105</v>
       </c>
-      <c r="I36" s="9">
+      <c r="N36" s="9">
         <v>18535</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="11">
+        <v>17</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="11">
         <v>7261</v>
       </c>
-      <c r="H37" s="11">
+      <c r="M37" s="11">
         <v>18759</v>
       </c>
-      <c r="I37" s="11">
+      <c r="N37" s="11">
         <v>17596</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="9">
+        <v>17</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="9">
         <v>10308</v>
       </c>
-      <c r="H38" s="9">
+      <c r="M38" s="9">
         <v>12637</v>
       </c>
-      <c r="I38" s="9">
+      <c r="N38" s="9">
         <v>13000</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="11">
+        <v>17</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="11">
         <v>6810</v>
       </c>
-      <c r="H39" s="11">
+      <c r="M39" s="11">
         <v>6696</v>
       </c>
-      <c r="I39" s="11">
+      <c r="N39" s="11">
         <v>6351</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="9">
+        <v>17</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="9">
         <v>50422</v>
       </c>
-      <c r="H40" s="9">
+      <c r="M40" s="9">
         <v>37767</v>
       </c>
-      <c r="I40" s="9">
+      <c r="N40" s="9">
         <v>40515</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15">
+        <v>158098</v>
+      </c>
+      <c r="F41" s="15">
+        <v>153217</v>
+      </c>
+      <c r="G41" s="15">
+        <v>149641</v>
+      </c>
+      <c r="H41" s="15">
+        <v>131546</v>
+      </c>
+      <c r="I41" s="15">
+        <v>145264</v>
+      </c>
+      <c r="J41" s="15">
         <v>155741</v>
       </c>
-      <c r="F41" s="15">
-        <v>0</v>
-      </c>
-      <c r="G41" s="15">
+      <c r="K41" s="15">
+        <v>0</v>
+      </c>
+      <c r="L41" s="15">
         <v>156456</v>
       </c>
-      <c r="H41" s="15">
+      <c r="M41" s="15">
         <v>157926</v>
       </c>
-      <c r="I41" s="15">
+      <c r="N41" s="15">
         <v>146596</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1413,8 +1923,13 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1423,8 +1938,13 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1433,10 +1953,15 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -1455,8 +1980,23 @@
       <c r="I45" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1465,342 +2005,557 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D47" s="9"/>
-      <c r="E47" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>12</v>
+      <c r="E47" s="9">
+        <v>0</v>
+      </c>
+      <c r="F47" s="9">
+        <v>0</v>
       </c>
       <c r="G47" s="9">
+        <v>0</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="9">
+        <v>0</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" s="9">
         <v>2716141</v>
       </c>
-      <c r="H47" s="9">
+      <c r="M47" s="9">
         <v>2232107</v>
       </c>
-      <c r="I47" s="9">
+      <c r="N47" s="9">
         <v>1901661</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
+        <v>130431</v>
+      </c>
+      <c r="F48" s="11">
+        <v>106452</v>
+      </c>
+      <c r="G48" s="11">
+        <v>42974</v>
+      </c>
+      <c r="H48" s="11">
+        <v>3651</v>
+      </c>
+      <c r="I48" s="11">
+        <v>383625</v>
+      </c>
+      <c r="J48" s="11">
         <v>226239</v>
       </c>
-      <c r="F48" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="11">
+      <c r="K48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48" s="11">
         <v>26005</v>
       </c>
-      <c r="H48" s="11">
+      <c r="M48" s="11">
         <v>346683</v>
       </c>
-      <c r="I48" s="11">
+      <c r="N48" s="11">
         <v>506732</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9">
+        <v>9619856</v>
+      </c>
+      <c r="F49" s="9">
+        <v>14965746</v>
+      </c>
+      <c r="G49" s="9">
+        <v>15877311</v>
+      </c>
+      <c r="H49" s="9">
+        <v>14743307</v>
+      </c>
+      <c r="I49" s="9">
+        <v>18327594</v>
+      </c>
+      <c r="J49" s="9">
         <v>22493542</v>
       </c>
-      <c r="F49" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
+        <v>1276560</v>
+      </c>
+      <c r="F50" s="11">
+        <v>1492644</v>
+      </c>
+      <c r="G50" s="11">
+        <v>1641204</v>
+      </c>
+      <c r="H50" s="11">
+        <v>1632765</v>
+      </c>
+      <c r="I50" s="11">
+        <v>2099570</v>
+      </c>
+      <c r="J50" s="11">
         <v>2695912</v>
       </c>
-      <c r="F50" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K50" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="9">
+        <v>17</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51" s="9">
         <v>8752943</v>
       </c>
-      <c r="H51" s="9">
+      <c r="M51" s="9">
         <v>9731921</v>
       </c>
-      <c r="I51" s="9">
+      <c r="N51" s="9">
         <v>6535480</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D52" s="11"/>
-      <c r="E52" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>12</v>
+      <c r="E52" s="11">
+        <v>0</v>
+      </c>
+      <c r="F52" s="11">
+        <v>0</v>
+      </c>
+      <c r="G52" s="11">
+        <v>0</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
+        <v>68466</v>
+      </c>
+      <c r="F53" s="9">
+        <v>79007</v>
+      </c>
+      <c r="G53" s="9">
+        <v>80806</v>
+      </c>
+      <c r="H53" s="9">
+        <v>32389</v>
+      </c>
+      <c r="I53" s="9">
+        <v>49253</v>
+      </c>
+      <c r="J53" s="9">
         <v>87444</v>
       </c>
-      <c r="F53" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="9">
+      <c r="K53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="9">
         <v>65960</v>
       </c>
-      <c r="H53" s="9">
+      <c r="M53" s="9">
         <v>311217</v>
       </c>
-      <c r="I53" s="9">
+      <c r="N53" s="9">
         <v>591315</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>12</v>
+      <c r="E54" s="11">
+        <v>0</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0</v>
       </c>
       <c r="G54" s="11">
         <v>0</v>
       </c>
-      <c r="H54" s="11">
-        <v>0</v>
+      <c r="H54" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I54" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54" s="11">
+        <v>0</v>
+      </c>
+      <c r="M54" s="11">
+        <v>0</v>
+      </c>
+      <c r="N54" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="9">
+        <v>17</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L55" s="9">
         <v>3447281</v>
       </c>
-      <c r="H55" s="9">
+      <c r="M55" s="9">
         <v>2930189</v>
       </c>
-      <c r="I55" s="9">
+      <c r="N55" s="9">
         <v>3100979</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="11">
+        <v>17</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L56" s="11">
         <v>2300058</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>6388195</v>
       </c>
-      <c r="I56" s="11">
+      <c r="N56" s="11">
         <v>5911674</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="9">
+        <v>17</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L57" s="9">
         <v>3288309</v>
       </c>
-      <c r="H57" s="9">
+      <c r="M57" s="9">
         <v>4709423</v>
       </c>
-      <c r="I57" s="9">
+      <c r="N57" s="9">
         <v>4763761</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="11">
+        <v>17</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58" s="11">
         <v>3412186</v>
       </c>
-      <c r="H58" s="11">
+      <c r="M58" s="11">
         <v>3498551</v>
       </c>
-      <c r="I58" s="11">
+      <c r="N58" s="11">
         <v>3514011</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="9">
+        <v>17</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L59" s="9">
         <v>7416988</v>
       </c>
-      <c r="H59" s="9">
+      <c r="M59" s="9">
         <v>5113984</v>
       </c>
-      <c r="I59" s="9">
+      <c r="N59" s="9">
         <v>4303676</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15">
+        <v>11095313</v>
+      </c>
+      <c r="F60" s="15">
+        <v>16643849</v>
+      </c>
+      <c r="G60" s="15">
+        <v>17642295</v>
+      </c>
+      <c r="H60" s="15">
+        <v>16412112</v>
+      </c>
+      <c r="I60" s="15">
+        <v>20860042</v>
+      </c>
+      <c r="J60" s="15">
         <v>25503137</v>
       </c>
-      <c r="F60" s="15">
-        <v>0</v>
-      </c>
-      <c r="G60" s="15">
+      <c r="K60" s="15">
+        <v>0</v>
+      </c>
+      <c r="L60" s="15">
         <v>31425871</v>
       </c>
-      <c r="H60" s="15">
+      <c r="M60" s="15">
         <v>35262270</v>
       </c>
-      <c r="I60" s="15">
+      <c r="N60" s="15">
         <v>31129289</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1809,8 +2564,13 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1819,8 +2579,13 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1829,10 +2594,15 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -1851,8 +2621,23 @@
       <c r="I64" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1861,320 +2646,520 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="9">
+        <v>17</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" s="9">
         <v>70291483</v>
       </c>
-      <c r="G66" s="9">
+      <c r="L66" s="9">
         <v>99198021</v>
       </c>
-      <c r="H66" s="9">
+      <c r="M66" s="9">
         <v>85916359</v>
       </c>
-      <c r="I66" s="9">
+      <c r="N66" s="9">
         <v>85533261</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11">
+        <v>160431734</v>
+      </c>
+      <c r="F67" s="11">
+        <v>209139489</v>
+      </c>
+      <c r="G67" s="11">
+        <v>238744444</v>
+      </c>
+      <c r="H67" s="11">
+        <v>304250000</v>
+      </c>
+      <c r="I67" s="11">
+        <v>353571429</v>
+      </c>
+      <c r="J67" s="11">
         <v>369671569</v>
       </c>
-      <c r="F67" s="11">
+      <c r="K67" s="11">
         <v>352495146</v>
       </c>
-      <c r="G67" s="11">
+      <c r="L67" s="11">
         <v>412777778</v>
       </c>
-      <c r="H67" s="11">
+      <c r="M67" s="11">
         <v>590601363</v>
       </c>
-      <c r="I67" s="11">
+      <c r="N67" s="11">
         <v>591976636</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9">
+        <v>73817755</v>
+      </c>
+      <c r="F68" s="9">
+        <v>110097299</v>
+      </c>
+      <c r="G68" s="9">
+        <v>120101597</v>
+      </c>
+      <c r="H68" s="9">
+        <v>126425024</v>
+      </c>
+      <c r="I68" s="9">
+        <v>144771156</v>
+      </c>
+      <c r="J68" s="9">
         <v>163437251</v>
       </c>
-      <c r="F68" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N68" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
+        <v>47987369</v>
+      </c>
+      <c r="F69" s="11">
+        <v>90584051</v>
+      </c>
+      <c r="G69" s="11">
+        <v>96456303</v>
+      </c>
+      <c r="H69" s="11">
+        <v>110106211</v>
+      </c>
+      <c r="I69" s="11">
+        <v>120312303</v>
+      </c>
+      <c r="J69" s="11">
         <v>155878115</v>
       </c>
-      <c r="F69" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I69" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="9">
+        <v>17</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" s="9">
         <v>182727312</v>
       </c>
-      <c r="G70" s="9">
+      <c r="L70" s="9">
         <v>240922160</v>
       </c>
-      <c r="H70" s="9">
+      <c r="M70" s="9">
         <v>249421318</v>
       </c>
-      <c r="I70" s="9">
+      <c r="N70" s="9">
         <v>244939660</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N71" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9">
+        <v>188093407</v>
+      </c>
+      <c r="F72" s="9">
+        <v>266016835</v>
+      </c>
+      <c r="G72" s="9">
+        <v>327149798</v>
+      </c>
+      <c r="H72" s="9">
+        <v>368056818</v>
+      </c>
+      <c r="I72" s="9">
+        <v>375977099</v>
+      </c>
+      <c r="J72" s="9">
         <v>424485437</v>
       </c>
-      <c r="F72" s="9">
+      <c r="K72" s="9">
         <v>436517321</v>
       </c>
-      <c r="G72" s="9">
+      <c r="L72" s="9">
         <v>653069307</v>
       </c>
-      <c r="H72" s="9">
+      <c r="M72" s="9">
         <v>825509284</v>
       </c>
-      <c r="I72" s="9">
+      <c r="N72" s="9">
         <v>714148551</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N73" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="9">
+        <v>17</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K74" s="9">
         <v>134965448</v>
       </c>
-      <c r="G74" s="9">
+      <c r="L74" s="9">
         <v>193896226</v>
       </c>
-      <c r="H74" s="9">
+      <c r="M74" s="9">
         <v>181942813</v>
       </c>
-      <c r="I74" s="9">
+      <c r="N74" s="9">
         <v>167303965</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="11">
+        <v>17</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75" s="11">
         <v>245828443</v>
       </c>
-      <c r="G75" s="11">
+      <c r="L75" s="11">
         <v>316768765</v>
       </c>
-      <c r="H75" s="11">
+      <c r="M75" s="11">
         <v>340540274</v>
       </c>
-      <c r="I75" s="11">
+      <c r="N75" s="11">
         <v>335966924</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="9">
+        <v>17</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K76" s="9">
         <v>275901729</v>
       </c>
-      <c r="G76" s="9">
+      <c r="L76" s="9">
         <v>319005530</v>
       </c>
-      <c r="H76" s="9">
+      <c r="M76" s="9">
         <v>372669384</v>
       </c>
-      <c r="I76" s="9">
+      <c r="N76" s="9">
         <v>366443154</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="11">
+        <v>17</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" s="11">
         <v>372637399</v>
       </c>
-      <c r="G77" s="11">
+      <c r="L77" s="11">
         <v>501055213</v>
       </c>
-      <c r="H77" s="11">
+      <c r="M77" s="11">
         <v>522483722</v>
       </c>
-      <c r="I77" s="11">
+      <c r="N77" s="11">
         <v>553300425</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="9">
+        <v>17</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" s="9">
         <v>87987671</v>
       </c>
-      <c r="G78" s="9">
+      <c r="L78" s="9">
         <v>147098251</v>
       </c>
-      <c r="H78" s="9">
+      <c r="M78" s="9">
         <v>135408796</v>
       </c>
-      <c r="I78" s="9">
+      <c r="N78" s="9">
         <v>106224263</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2183,8 +3168,13 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2193,8 +3183,13 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2203,10 +3198,15 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -2225,8 +3225,23 @@
       <c r="I82" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2235,185 +3250,295 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D84" s="9"/>
-      <c r="E84" s="9" t="s">
-        <v>12</v>
+      <c r="E84" s="9">
+        <v>0</v>
       </c>
       <c r="F84" s="9">
+        <v>0</v>
+      </c>
+      <c r="G84" s="9">
+        <v>0</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" s="9">
+        <v>0</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K84" s="9">
         <v>-5723413</v>
       </c>
-      <c r="G84" s="9">
+      <c r="L84" s="9">
         <v>-2317141</v>
       </c>
-      <c r="H84" s="9">
+      <c r="M84" s="9">
         <v>-1815486</v>
       </c>
-      <c r="I84" s="9">
+      <c r="N84" s="9">
         <v>-1178166</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
+        <v>-90619</v>
+      </c>
+      <c r="F85" s="11">
+        <v>-65262</v>
+      </c>
+      <c r="G85" s="11">
+        <v>-34795</v>
+      </c>
+      <c r="H85" s="11">
+        <v>-2921</v>
+      </c>
+      <c r="I85" s="11">
+        <v>-231555</v>
+      </c>
+      <c r="J85" s="11">
         <v>-148120</v>
       </c>
-      <c r="F85" s="11">
+      <c r="K85" s="11">
         <v>-53843</v>
       </c>
-      <c r="G85" s="11">
+      <c r="L85" s="11">
         <v>-15070</v>
       </c>
-      <c r="H85" s="11">
+      <c r="M85" s="11">
         <v>-191156</v>
       </c>
-      <c r="I85" s="11">
+      <c r="N85" s="11">
         <v>-221250</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9">
+        <v>-7158068</v>
+      </c>
+      <c r="F86" s="9">
+        <v>-8812703</v>
+      </c>
+      <c r="G86" s="9">
+        <v>-11920146</v>
+      </c>
+      <c r="H86" s="9">
+        <v>-10356252</v>
+      </c>
+      <c r="I86" s="9">
+        <v>-12758344</v>
+      </c>
+      <c r="J86" s="9">
         <v>-17281071</v>
       </c>
-      <c r="F86" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I86" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K86" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L86" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M86" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N86" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11">
+        <v>-939906</v>
+      </c>
+      <c r="F87" s="11">
+        <v>-1038879</v>
+      </c>
+      <c r="G87" s="11">
+        <v>-1251618</v>
+      </c>
+      <c r="H87" s="11">
+        <v>-1306212</v>
+      </c>
+      <c r="I87" s="11">
+        <v>-1573348</v>
+      </c>
+      <c r="J87" s="11">
         <v>-2229393</v>
       </c>
-      <c r="F87" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H87" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I87" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K87" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L87" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M87" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N87" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" s="9">
+        <v>17</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K88" s="9">
         <v>-14874772</v>
       </c>
-      <c r="G88" s="9">
+      <c r="L88" s="9">
         <v>-6966634</v>
       </c>
-      <c r="H88" s="9">
+      <c r="M88" s="9">
         <v>-7598399</v>
       </c>
-      <c r="I88" s="9">
+      <c r="N88" s="9">
         <v>-5527536</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D89" s="11"/>
-      <c r="E89" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>12</v>
+      <c r="E89" s="11">
+        <v>0</v>
+      </c>
+      <c r="F89" s="11">
+        <v>0</v>
+      </c>
+      <c r="G89" s="11">
+        <v>0</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K89" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L89" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M89" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N89" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9">
+        <v>-52683</v>
+      </c>
+      <c r="F90" s="9">
+        <v>-45922</v>
+      </c>
+      <c r="G90" s="9">
+        <v>-60676</v>
+      </c>
+      <c r="H90" s="9">
+        <v>-25911</v>
+      </c>
+      <c r="I90" s="9">
+        <v>-44658</v>
+      </c>
+      <c r="J90" s="9">
         <v>-79968</v>
       </c>
-      <c r="F90" s="9">
+      <c r="K90" s="9">
         <v>-218514</v>
       </c>
-      <c r="G90" s="9">
+      <c r="L90" s="9">
         <v>-36436</v>
       </c>
-      <c r="H90" s="9">
+      <c r="M90" s="9">
         <v>-308499</v>
       </c>
-      <c r="I90" s="9">
+      <c r="N90" s="9">
         <v>-537320</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D91" s="11"/>
-      <c r="E91" s="11" t="s">
-        <v>12</v>
+      <c r="E91" s="11">
+        <v>0</v>
       </c>
       <c r="F91" s="11">
         <v>0</v>
@@ -2421,156 +3546,261 @@
       <c r="G91" s="11">
         <v>0</v>
       </c>
-      <c r="H91" s="11">
-        <v>0</v>
+      <c r="H91" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I91" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K91" s="11">
+        <v>0</v>
+      </c>
+      <c r="L91" s="11">
+        <v>0</v>
+      </c>
+      <c r="M91" s="11">
+        <v>0</v>
+      </c>
+      <c r="N91" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" s="9">
+        <v>17</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I92" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K92" s="9">
         <v>-7104623</v>
       </c>
-      <c r="G92" s="9">
+      <c r="L92" s="9">
         <v>-3078388</v>
       </c>
-      <c r="H92" s="9">
+      <c r="M92" s="9">
         <v>-2195133</v>
       </c>
-      <c r="I92" s="9">
+      <c r="N92" s="9">
         <v>-2308298</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" s="11">
+        <v>17</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I93" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K93" s="11">
         <v>-11948088</v>
       </c>
-      <c r="G93" s="11">
+      <c r="L93" s="11">
         <v>-2000103</v>
       </c>
-      <c r="H93" s="11">
+      <c r="M93" s="11">
         <v>-5318515</v>
       </c>
-      <c r="I93" s="11">
+      <c r="N93" s="11">
         <v>-5162241</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94" s="9">
+        <v>17</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K94" s="9">
         <v>-9869559</v>
       </c>
-      <c r="G94" s="9">
+      <c r="L94" s="9">
         <v>-2751982</v>
       </c>
-      <c r="H94" s="9">
+      <c r="M94" s="9">
         <v>-3562767</v>
       </c>
-      <c r="I94" s="9">
+      <c r="N94" s="9">
         <v>-3808921</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95" s="11">
+        <v>17</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I95" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J95" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K95" s="11">
         <v>-5223373</v>
       </c>
-      <c r="G95" s="11">
+      <c r="L95" s="11">
         <v>-2026436</v>
       </c>
-      <c r="H95" s="11">
+      <c r="M95" s="11">
         <v>-1645839</v>
       </c>
-      <c r="I95" s="11">
+      <c r="N95" s="11">
         <v>-1987706</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96" s="9">
+        <v>17</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I96" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K96" s="9">
         <v>-11131375</v>
       </c>
-      <c r="G96" s="9">
+      <c r="L96" s="9">
         <v>-5788526</v>
       </c>
-      <c r="H96" s="9">
+      <c r="M96" s="9">
         <v>-3656448</v>
       </c>
-      <c r="I96" s="9">
+      <c r="N96" s="9">
         <v>-2773968</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C97" s="15"/>
       <c r="D97" s="15"/>
       <c r="E97" s="15">
+        <v>-8241276</v>
+      </c>
+      <c r="F97" s="15">
+        <v>-9962766</v>
+      </c>
+      <c r="G97" s="15">
+        <v>-13267235</v>
+      </c>
+      <c r="H97" s="15">
+        <v>-11691296</v>
+      </c>
+      <c r="I97" s="15">
+        <v>-14607905</v>
+      </c>
+      <c r="J97" s="15">
         <v>-19738552</v>
       </c>
-      <c r="F97" s="15">
+      <c r="K97" s="15">
         <v>-66147560</v>
       </c>
-      <c r="G97" s="15">
+      <c r="L97" s="15">
         <v>-24980716</v>
       </c>
-      <c r="H97" s="15">
+      <c r="M97" s="15">
         <v>-26292242</v>
       </c>
-      <c r="I97" s="15">
+      <c r="N97" s="15">
         <v>-23505406</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2579,8 +3809,13 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2589,8 +3824,13 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2599,10 +3839,15 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -2621,8 +3866,23 @@
       <c r="I101" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J101" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L101" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M101" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N101" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2631,185 +3891,295 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D103" s="9"/>
-      <c r="E103" s="9" t="s">
-        <v>12</v>
+      <c r="E103" s="9">
+        <v>0</v>
       </c>
       <c r="F103" s="9">
+        <v>0</v>
+      </c>
+      <c r="G103" s="9">
+        <v>0</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I103" s="9">
+        <v>0</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K103" s="9">
         <v>2141501</v>
       </c>
-      <c r="G103" s="9">
+      <c r="L103" s="9">
         <v>399000</v>
       </c>
-      <c r="H103" s="9">
+      <c r="M103" s="9">
         <v>416621</v>
       </c>
-      <c r="I103" s="9">
+      <c r="N103" s="9">
         <v>723495</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
+        <v>39812</v>
+      </c>
+      <c r="F104" s="11">
+        <v>41190</v>
+      </c>
+      <c r="G104" s="11">
+        <v>8179</v>
+      </c>
+      <c r="H104" s="11">
+        <v>730</v>
+      </c>
+      <c r="I104" s="11">
+        <v>152070</v>
+      </c>
+      <c r="J104" s="11">
         <v>78119</v>
       </c>
-      <c r="F104" s="11">
+      <c r="K104" s="11">
         <v>18771</v>
       </c>
-      <c r="G104" s="11">
+      <c r="L104" s="11">
         <v>10935</v>
       </c>
-      <c r="H104" s="11">
+      <c r="M104" s="11">
         <v>155527</v>
       </c>
-      <c r="I104" s="11">
+      <c r="N104" s="11">
         <v>285482</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9">
+        <v>2461788</v>
+      </c>
+      <c r="F105" s="9">
+        <v>6153043</v>
+      </c>
+      <c r="G105" s="9">
+        <v>3957165</v>
+      </c>
+      <c r="H105" s="9">
+        <v>4387055</v>
+      </c>
+      <c r="I105" s="9">
+        <v>5569250</v>
+      </c>
+      <c r="J105" s="9">
         <v>5212471</v>
       </c>
-      <c r="F105" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H105" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I105" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K105" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L105" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M105" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N105" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
+        <v>336654</v>
+      </c>
+      <c r="F106" s="11">
+        <v>453765</v>
+      </c>
+      <c r="G106" s="11">
+        <v>389586</v>
+      </c>
+      <c r="H106" s="11">
+        <v>326553</v>
+      </c>
+      <c r="I106" s="11">
+        <v>526222</v>
+      </c>
+      <c r="J106" s="11">
         <v>466519</v>
       </c>
-      <c r="F106" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H106" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I106" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K106" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L106" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M106" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N106" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107" s="9">
+        <v>17</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I107" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J107" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K107" s="9">
         <v>5134965</v>
       </c>
-      <c r="G107" s="9">
+      <c r="L107" s="9">
         <v>1786309</v>
       </c>
-      <c r="H107" s="9">
+      <c r="M107" s="9">
         <v>2133522</v>
       </c>
-      <c r="I107" s="9">
+      <c r="N107" s="9">
         <v>1007944</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D108" s="11"/>
-      <c r="E108" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" s="11" t="s">
-        <v>12</v>
+      <c r="E108" s="11">
+        <v>0</v>
+      </c>
+      <c r="F108" s="11">
+        <v>0</v>
+      </c>
+      <c r="G108" s="11">
+        <v>0</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J108" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K108" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L108" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M108" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N108" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
+        <v>15783</v>
+      </c>
+      <c r="F109" s="9">
+        <v>33085</v>
+      </c>
+      <c r="G109" s="9">
+        <v>20130</v>
+      </c>
+      <c r="H109" s="9">
+        <v>6478</v>
+      </c>
+      <c r="I109" s="9">
+        <v>4595</v>
+      </c>
+      <c r="J109" s="9">
         <v>7476</v>
       </c>
-      <c r="F109" s="9">
+      <c r="K109" s="9">
         <v>-29502</v>
       </c>
-      <c r="G109" s="9">
+      <c r="L109" s="9">
         <v>29524</v>
       </c>
-      <c r="H109" s="9">
+      <c r="M109" s="9">
         <v>2718</v>
       </c>
-      <c r="I109" s="9">
+      <c r="N109" s="9">
         <v>53995</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D110" s="11"/>
-      <c r="E110" s="11" t="s">
-        <v>12</v>
+      <c r="E110" s="11">
+        <v>0</v>
       </c>
       <c r="F110" s="11">
         <v>0</v>
@@ -2817,152 +4187,257 @@
       <c r="G110" s="11">
         <v>0</v>
       </c>
-      <c r="H110" s="11">
-        <v>0</v>
+      <c r="H110" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I110" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J110" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K110" s="11">
+        <v>0</v>
+      </c>
+      <c r="L110" s="11">
+        <v>0</v>
+      </c>
+      <c r="M110" s="11">
+        <v>0</v>
+      </c>
+      <c r="N110" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F111" s="9">
+        <v>17</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I111" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J111" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K111" s="9">
         <v>2043605</v>
       </c>
-      <c r="G111" s="9">
+      <c r="L111" s="9">
         <v>368893</v>
       </c>
-      <c r="H111" s="9">
+      <c r="M111" s="9">
         <v>735056</v>
       </c>
-      <c r="I111" s="9">
+      <c r="N111" s="9">
         <v>792681</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F112" s="11">
+        <v>17</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I112" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J112" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K112" s="11">
         <v>1441204</v>
       </c>
-      <c r="G112" s="11">
+      <c r="L112" s="11">
         <v>299955</v>
       </c>
-      <c r="H112" s="11">
+      <c r="M112" s="11">
         <v>1069680</v>
       </c>
-      <c r="I112" s="11">
+      <c r="N112" s="11">
         <v>749433</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F113" s="9">
+        <v>17</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I113" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J113" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K113" s="9">
         <v>2545467</v>
       </c>
-      <c r="G113" s="9">
+      <c r="L113" s="9">
         <v>536327</v>
       </c>
-      <c r="H113" s="9">
+      <c r="M113" s="9">
         <v>1146656</v>
       </c>
-      <c r="I113" s="9">
+      <c r="N113" s="9">
         <v>954840</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F114" s="11">
+        <v>17</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G114" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H114" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I114" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J114" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K114" s="11">
         <v>4363842</v>
       </c>
-      <c r="G114" s="11">
+      <c r="L114" s="11">
         <v>1385750</v>
       </c>
-      <c r="H114" s="11">
+      <c r="M114" s="11">
         <v>1852712</v>
       </c>
-      <c r="I114" s="11">
+      <c r="N114" s="11">
         <v>1526305</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F115" s="9">
+        <v>17</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H115" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I115" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J115" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K115" s="9">
         <v>3334854</v>
       </c>
-      <c r="G115" s="9">
+      <c r="L115" s="9">
         <v>1628462</v>
       </c>
-      <c r="H115" s="9">
+      <c r="M115" s="9">
         <v>1457536</v>
       </c>
-      <c r="I115" s="9">
+      <c r="N115" s="9">
         <v>1529708</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C116" s="15"/>
       <c r="D116" s="15"/>
       <c r="E116" s="15">
+        <v>2854037</v>
+      </c>
+      <c r="F116" s="15">
+        <v>6681083</v>
+      </c>
+      <c r="G116" s="15">
+        <v>4375060</v>
+      </c>
+      <c r="H116" s="15">
+        <v>4720816</v>
+      </c>
+      <c r="I116" s="15">
+        <v>6252137</v>
+      </c>
+      <c r="J116" s="15">
         <v>5764585</v>
       </c>
-      <c r="F116" s="15">
+      <c r="K116" s="15">
         <v>20994707</v>
       </c>
-      <c r="G116" s="15">
+      <c r="L116" s="15">
         <v>6445155</v>
       </c>
-      <c r="H116" s="15">
+      <c r="M116" s="15">
         <v>8970028</v>
       </c>
-      <c r="I116" s="15">
+      <c r="N116" s="15">
         <v>7623883</v>
       </c>
     </row>

--- a/database/industries/ravankar/sheranol/product/quarterly.xlsx
+++ b/database/industries/ravankar/sheranol/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\sheranol\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\sheranol\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD58D7FF-A23D-47A7-88F8-56766001B53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48BFBF0-DE8C-46EE-AF68-F7D3AD7F7942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="41">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -602,12 +602,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -622,7 +622,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -639,7 +639,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -656,7 +656,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -671,7 +671,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -688,7 +688,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -705,7 +705,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -720,7 +720,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -757,7 +757,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -772,7 +772,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -811,7 +811,7 @@
         <v>22231</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -850,7 +850,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -889,7 +889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -928,7 +928,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
@@ -967,7 +967,7 @@
         <v>26682</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>17771</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>17320</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>13237</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>7447</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>40385</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>29</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>146426</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1290,7 +1290,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1305,7 +1305,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1320,7 +1320,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>30</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1372,7 +1372,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>15</v>
       </c>
@@ -1398,8 +1398,8 @@
       <c r="J28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="9" t="s">
-        <v>17</v>
+      <c r="K28" s="9">
+        <v>111890</v>
       </c>
       <c r="L28" s="9">
         <v>27381</v>
@@ -1411,7 +1411,7 @@
         <v>22233</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>18</v>
       </c>
@@ -1437,8 +1437,8 @@
       <c r="J29" s="11">
         <v>612</v>
       </c>
-      <c r="K29" s="11" t="s">
-        <v>17</v>
+      <c r="K29" s="11">
+        <v>206</v>
       </c>
       <c r="L29" s="11">
         <v>63</v>
@@ -1450,7 +1450,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>19</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>20</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>21</v>
       </c>
@@ -1554,8 +1554,8 @@
       <c r="J32" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K32" s="9" t="s">
-        <v>17</v>
+      <c r="K32" s="9">
+        <v>109506</v>
       </c>
       <c r="L32" s="9">
         <v>36331</v>
@@ -1567,7 +1567,7 @@
         <v>26682</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>31</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>22</v>
       </c>
@@ -1632,8 +1632,8 @@
       <c r="J34" s="9">
         <v>206</v>
       </c>
-      <c r="K34" s="9" t="s">
-        <v>17</v>
+      <c r="K34" s="9">
+        <v>433</v>
       </c>
       <c r="L34" s="9">
         <v>101</v>
@@ -1645,7 +1645,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>23</v>
       </c>
@@ -1669,8 +1669,8 @@
       <c r="J35" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K35" s="11" t="s">
-        <v>17</v>
+      <c r="K35" s="11">
+        <v>0</v>
       </c>
       <c r="L35" s="11">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>24</v>
       </c>
@@ -1708,8 +1708,8 @@
       <c r="J36" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K36" s="9" t="s">
-        <v>17</v>
+      <c r="K36" s="9">
+        <v>67782</v>
       </c>
       <c r="L36" s="9">
         <v>17779</v>
@@ -1721,7 +1721,7 @@
         <v>18535</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>25</v>
       </c>
@@ -1747,8 +1747,8 @@
       <c r="J37" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K37" s="11" t="s">
-        <v>17</v>
+      <c r="K37" s="11">
+        <v>54466</v>
       </c>
       <c r="L37" s="11">
         <v>7261</v>
@@ -1760,7 +1760,7 @@
         <v>17596</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>26</v>
       </c>
@@ -1786,8 +1786,8 @@
       <c r="J38" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K38" s="9" t="s">
-        <v>17</v>
+      <c r="K38" s="9">
+        <v>44998</v>
       </c>
       <c r="L38" s="9">
         <v>10308</v>
@@ -1799,7 +1799,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>27</v>
       </c>
@@ -1825,8 +1825,8 @@
       <c r="J39" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K39" s="11" t="s">
-        <v>17</v>
+      <c r="K39" s="11">
+        <v>25728</v>
       </c>
       <c r="L39" s="11">
         <v>6810</v>
@@ -1838,7 +1838,7 @@
         <v>6351</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>28</v>
       </c>
@@ -1864,8 +1864,8 @@
       <c r="J40" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K40" s="9" t="s">
-        <v>17</v>
+      <c r="K40" s="9">
+        <v>164412</v>
       </c>
       <c r="L40" s="9">
         <v>50422</v>
@@ -1877,7 +1877,7 @@
         <v>40515</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>29</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>155741</v>
       </c>
       <c r="K41" s="15">
-        <v>0</v>
+        <v>579421</v>
       </c>
       <c r="L41" s="15">
         <v>156456</v>
@@ -1914,7 +1914,7 @@
         <v>146596</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1929,7 +1929,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1944,7 +1944,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1959,7 +1959,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>33</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2011,7 +2011,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>15</v>
       </c>
@@ -2037,8 +2037,8 @@
       <c r="J47" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K47" s="9" t="s">
-        <v>17</v>
+      <c r="K47" s="9">
+        <v>7864914</v>
       </c>
       <c r="L47" s="9">
         <v>2716141</v>
@@ -2050,7 +2050,7 @@
         <v>1901661</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>18</v>
       </c>
@@ -2076,8 +2076,8 @@
       <c r="J48" s="11">
         <v>226239</v>
       </c>
-      <c r="K48" s="11" t="s">
-        <v>17</v>
+      <c r="K48" s="11">
+        <v>72614</v>
       </c>
       <c r="L48" s="11">
         <v>26005</v>
@@ -2089,7 +2089,7 @@
         <v>506732</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>19</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>20</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>21</v>
       </c>
@@ -2193,8 +2193,8 @@
       <c r="J51" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K51" s="9" t="s">
-        <v>17</v>
+      <c r="K51" s="9">
+        <v>20009737</v>
       </c>
       <c r="L51" s="9">
         <v>8752943</v>
@@ -2206,7 +2206,7 @@
         <v>6535480</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>31</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>22</v>
       </c>
@@ -2271,8 +2271,8 @@
       <c r="J53" s="9">
         <v>87444</v>
       </c>
-      <c r="K53" s="9" t="s">
-        <v>17</v>
+      <c r="K53" s="9">
+        <v>189012</v>
       </c>
       <c r="L53" s="9">
         <v>65960</v>
@@ -2284,7 +2284,7 @@
         <v>591315</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>23</v>
       </c>
@@ -2310,8 +2310,8 @@
       <c r="J54" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K54" s="11" t="s">
-        <v>17</v>
+      <c r="K54" s="11">
+        <v>0</v>
       </c>
       <c r="L54" s="11">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>24</v>
       </c>
@@ -2349,8 +2349,8 @@
       <c r="J55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K55" s="9" t="s">
-        <v>17</v>
+      <c r="K55" s="9">
+        <v>9148228</v>
       </c>
       <c r="L55" s="9">
         <v>3447281</v>
@@ -2362,7 +2362,7 @@
         <v>3100979</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>25</v>
       </c>
@@ -2388,8 +2388,8 @@
       <c r="J56" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K56" s="11" t="s">
-        <v>17</v>
+      <c r="K56" s="11">
+        <v>13389292</v>
       </c>
       <c r="L56" s="11">
         <v>2300058</v>
@@ -2401,7 +2401,7 @@
         <v>5911674</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>26</v>
       </c>
@@ -2427,8 +2427,8 @@
       <c r="J57" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K57" s="9" t="s">
-        <v>17</v>
+      <c r="K57" s="9">
+        <v>12415026</v>
       </c>
       <c r="L57" s="9">
         <v>3288309</v>
@@ -2440,7 +2440,7 @@
         <v>4763761</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>27</v>
       </c>
@@ -2466,8 +2466,8 @@
       <c r="J58" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K58" s="11" t="s">
-        <v>17</v>
+      <c r="K58" s="11">
+        <v>9587215</v>
       </c>
       <c r="L58" s="11">
         <v>3412186</v>
@@ -2479,7 +2479,7 @@
         <v>3514011</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>28</v>
       </c>
@@ -2505,8 +2505,8 @@
       <c r="J59" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K59" s="9" t="s">
-        <v>17</v>
+      <c r="K59" s="9">
+        <v>14466229</v>
       </c>
       <c r="L59" s="9">
         <v>7416988</v>
@@ -2518,7 +2518,7 @@
         <v>4303676</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="14" t="s">
         <v>29</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>25503137</v>
       </c>
       <c r="K60" s="15">
-        <v>0</v>
+        <v>87142267</v>
       </c>
       <c r="L60" s="15">
         <v>31425871</v>
@@ -2555,7 +2555,7 @@
         <v>31129289</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2570,7 +2570,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2585,7 +2585,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2600,7 +2600,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
         <v>35</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2652,7 +2652,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>15</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>85533261</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>18</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>591976636</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>19</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>20</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>21</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>244939660</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>31</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>22</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>714148551</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>23</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>24</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>167303965</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>25</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>335966924</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>26</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>366443154</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>27</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>553300425</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>28</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>106224263</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3174,7 +3174,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3189,7 +3189,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3204,7 +3204,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
         <v>39</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3256,7 +3256,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>15</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>-1178166</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>18</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>-221250</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>19</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>20</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>21</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>-5527536</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>31</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>22</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>-537320</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>23</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>24</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>-2308298</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>25</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>-5162241</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>26</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>-3808921</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>27</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>-1987706</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>28</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>-2773968</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="14" t="s">
         <v>29</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>-23505406</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3815,7 +3815,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3830,7 +3830,7 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3845,7 +3845,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B101" s="7" t="s">
         <v>40</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3897,7 +3897,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>15</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>723495</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>18</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>285482</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>19</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>20</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>21</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>1007944</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>31</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>22</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>53995</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>23</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>24</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>792681</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>25</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>749433</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>26</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>954840</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>27</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>1526305</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>28</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>1529708</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="14" t="s">
         <v>29</v>
       </c>
